--- a/Codelist Excel Files and Conversion Templates to XML/geophysics_properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/geophysics_properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{530A38A1-67DE-CC46-BF6D-2BFFF8BADC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4779222-DC1C-B04B-B66D-C72D382ED229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13820" yWindow="10020" windowWidth="35840" windowHeight="20900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -740,9 +740,6 @@
     <t>propertyClass</t>
   </si>
   <si>
-    <t>geophysics_properties</t>
-  </si>
-  <si>
     <t>DIGGS Measurement Properties for Geophysics</t>
   </si>
   <si>
@@ -1425,6 +1422,9 @@
   </si>
   <si>
     <t>//diggs:ProcessedGeophysicalSurvey/diggs:geophysicalMethod[text()="borehole image log"]</t>
+  </si>
+  <si>
+    <t>gp_properties</t>
   </si>
 </sst>
 </file>
@@ -1594,7 +1594,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1630,9 +1630,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1642,7 +1639,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2194,7 +2190,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2239,13 +2235,13 @@
         <v>233</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -2311,13 +2307,13 @@
         <v/>
       </c>
       <c r="B2" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="D2" s="15" t="s">
         <v>238</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>239</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>1</v>
@@ -2328,20 +2324,20 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="str">
+      <c r="A3" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B2941,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B3" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -2350,20 +2346,20 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="str">
+      <c r="A4" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B2942,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B4" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -2372,20 +2368,20 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="str">
+      <c r="A5" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B2943,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B5" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -2394,20 +2390,20 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="str">
+      <c r="A6" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B2944,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B6" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -2416,20 +2412,20 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="str">
+      <c r="A7" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B2945,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B7" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -2438,20 +2434,20 @@
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="str">
+      <c r="A8" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B2946,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B8" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -2460,20 +2456,20 @@
       <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="str">
+      <c r="A9" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B2947,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B9" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -2482,20 +2478,20 @@
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="str">
+      <c r="A10" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B2948,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B10" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -2504,20 +2500,20 @@
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="str">
+      <c r="A11" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B2949,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B11" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -2526,20 +2522,20 @@
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="str">
+      <c r="A12" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B2950,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B12" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -2548,20 +2544,20 @@
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="str">
+      <c r="A13" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B2951,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B13" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -2570,20 +2566,20 @@
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="str">
+      <c r="A14" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B2952,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B14" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -2592,20 +2588,20 @@
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="str">
+      <c r="A15" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B2953,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B15" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -2614,20 +2610,20 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="str">
+      <c r="A16" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B2954,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B16" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -2636,20 +2632,20 @@
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="str">
+      <c r="A17" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B2955,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B17" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="D17" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -2658,42 +2654,42 @@
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="str">
+      <c r="A18" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B2956,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B18" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="D18" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="E18" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E18" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B2957,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="str">
-        <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B2957,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B19" s="16" t="s">
+      <c r="C19" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="D19" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -2702,20 +2698,20 @@
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="str">
+      <c r="A20" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B2958,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B20" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="D20" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -2724,20 +2720,20 @@
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="str">
+      <c r="A21" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B2959,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B21" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="D21" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -2746,20 +2742,20 @@
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="str">
+      <c r="A22" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B2960,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B22" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="D22" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="D22" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -2768,20 +2764,20 @@
       <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="str">
+      <c r="A23" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B2961,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B23" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="D23" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="D23" s="18" t="s">
-        <v>302</v>
-      </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -2790,20 +2786,20 @@
       <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="str">
+      <c r="A24" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B2962,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B24" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="D24" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D24" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -2812,20 +2808,20 @@
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="str">
+      <c r="A25" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B2963,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B25" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="C25" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="D25" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="D25" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F25" s="2" t="s">
@@ -2834,20 +2830,20 @@
       <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="str">
+      <c r="A26" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B2964,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B26" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="C26" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="D26" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F26" s="2" t="s">
@@ -2856,20 +2852,20 @@
       <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="str">
+      <c r="A27" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B2965,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B27" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="D27" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="D27" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -2878,20 +2874,20 @@
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="str">
+      <c r="A28" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B2966,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B28" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="D28" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="D28" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F28" s="2" t="s">
@@ -2900,20 +2896,20 @@
       <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="str">
+      <c r="A29" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B2967,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B29" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="D29" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="D29" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -2922,20 +2918,20 @@
       <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="str">
+      <c r="A30" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B2968,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B30" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="C30" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="D30" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="D30" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F30" s="2" t="s">
@@ -2944,20 +2940,20 @@
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="str">
+      <c r="A31" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B2969,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B31" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="C31" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="D31" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="D31" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -2966,20 +2962,20 @@
       <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="17" t="str">
+      <c r="A32" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B2970,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B32" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="D32" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D32" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F32" s="2" t="s">
@@ -2988,20 +2984,20 @@
       <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="str">
+      <c r="A33" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B2971,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B33" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="C33" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="D33" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="D33" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F33" s="2" t="s">
@@ -3010,20 +3006,20 @@
       <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="str">
+      <c r="A34" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B2972,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B34" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="D34" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="D34" s="18" t="s">
-        <v>335</v>
-      </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F34" s="2" t="s">
@@ -3032,20 +3028,20 @@
       <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="17" t="str">
+      <c r="A35" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B2973,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B35" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="D35" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="D35" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F35" s="2" t="s">
@@ -3054,20 +3050,20 @@
       <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="str">
+      <c r="A36" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B2974,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B36" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="D36" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="D36" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F36" s="2" t="s">
@@ -3076,20 +3072,20 @@
       <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" s="17" t="str">
+      <c r="A37" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B37,AssociatedElements!B$2:B2975,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B37" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="C37" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="D37" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="D37" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F37" s="2" t="s">
@@ -3098,20 +3094,20 @@
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A38" s="17" t="str">
+      <c r="A38" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B38,AssociatedElements!B$2:B2976,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B38" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="C38" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="D38" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="D38" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F38" s="2" t="s">
@@ -3120,20 +3116,20 @@
       <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="17" t="str">
+      <c r="A39" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B39,AssociatedElements!B$2:B2977,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B39" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="C39" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="D39" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="D39" s="18" t="s">
-        <v>350</v>
-      </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F39" s="2" t="s">
@@ -3142,20 +3138,20 @@
       <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="17" t="str">
+      <c r="A40" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B40,AssociatedElements!B$2:B2978,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B40" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="C40" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="D40" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="D40" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F40" s="2" t="s">
@@ -3164,20 +3160,20 @@
       <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="17" t="str">
+      <c r="A41" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B41,AssociatedElements!B$2:B2979,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B41" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="C41" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="D41" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="D41" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F41" s="2" t="s">
@@ -3186,20 +3182,20 @@
       <c r="G41" s="11"/>
     </row>
     <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="17" t="str">
+      <c r="A42" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B42,AssociatedElements!B$2:B2980,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B42" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C42" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="D42" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="D42" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F42" s="2" t="s">
@@ -3208,20 +3204,20 @@
       <c r="G42" s="11"/>
     </row>
     <row r="43" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A43" s="17" t="str">
+      <c r="A43" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B43,AssociatedElements!B$2:B2981,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B43" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="C43" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="D43" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="D43" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="E43" s="20" t="s">
+      <c r="E43" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F43" s="2" t="s">
@@ -3230,20 +3226,20 @@
       <c r="G43" s="11"/>
     </row>
     <row r="44" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A44" s="17" t="str">
+      <c r="A44" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B44,AssociatedElements!B$2:B2982,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B44" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C44" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="D44" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="D44" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="E44" s="20" t="s">
+      <c r="E44" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F44" s="2" t="s">
@@ -3252,20 +3248,20 @@
       <c r="G44" s="11"/>
     </row>
     <row r="45" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" s="17" t="str">
+      <c r="A45" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B45,AssociatedElements!B$2:B2983,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B45" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="C45" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="D45" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="D45" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F45" s="2" t="s">
@@ -3274,20 +3270,20 @@
       <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A46" s="17" t="str">
+      <c r="A46" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B46,AssociatedElements!B$2:B2984,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B46" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="C46" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="D46" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="D46" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="E46" s="20" t="s">
+      <c r="E46" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F46" s="2" t="s">
@@ -3296,20 +3292,20 @@
       <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="17" t="str">
+      <c r="A47" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B47,AssociatedElements!B$2:B2985,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B47" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="C47" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="D47" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="D47" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="E47" s="20" t="s">
+      <c r="E47" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F47" s="2" t="s">
@@ -3318,20 +3314,20 @@
       <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="17" t="str">
+      <c r="A48" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B48,AssociatedElements!B$2:B2986,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B48" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="C48" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="D48" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="D48" s="18" t="s">
-        <v>377</v>
-      </c>
-      <c r="E48" s="20" t="s">
+      <c r="E48" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F48" s="2" t="s">
@@ -3340,20 +3336,20 @@
       <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A49" s="17" t="str">
+      <c r="A49" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B49,AssociatedElements!B$2:B2987,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B49" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="C49" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="D49" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="D49" s="18" t="s">
-        <v>380</v>
-      </c>
-      <c r="E49" s="20" t="s">
+      <c r="E49" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F49" s="2" t="s">
@@ -3362,20 +3358,20 @@
       <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A50" s="17" t="str">
+      <c r="A50" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B50,AssociatedElements!B$2:B2988,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B50" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="C50" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="D50" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="D50" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="E50" s="20" t="s">
+      <c r="E50" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F50" s="2" t="s">
@@ -3384,20 +3380,20 @@
       <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="17" t="str">
+      <c r="A51" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B51,AssociatedElements!B$2:B2989,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B51" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="C51" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="D51" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="D51" s="18" t="s">
-        <v>386</v>
-      </c>
-      <c r="E51" s="20" t="s">
+      <c r="E51" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F51" s="2" t="s">
@@ -3406,20 +3402,20 @@
       <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A52" s="17" t="str">
+      <c r="A52" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B52,AssociatedElements!B$2:B2990,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B52" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="C52" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="D52" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="D52" s="18" t="s">
-        <v>389</v>
-      </c>
-      <c r="E52" s="20" t="s">
+      <c r="E52" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F52" s="2" t="s">
@@ -3428,20 +3424,20 @@
       <c r="G52" s="11"/>
     </row>
     <row r="53" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A53" s="17" t="str">
+      <c r="A53" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B53,AssociatedElements!B$2:B2991,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B53" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="C53" s="17" t="s">
         <v>390</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="D53" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="D53" s="18" t="s">
-        <v>392</v>
-      </c>
-      <c r="E53" s="20" t="s">
+      <c r="E53" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F53" s="2" t="s">
@@ -3450,20 +3446,20 @@
       <c r="G53" s="11"/>
     </row>
     <row r="54" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A54" s="17" t="str">
+      <c r="A54" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B54,AssociatedElements!B$2:B2992,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B54" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="C54" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="D54" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="D54" s="18" t="s">
-        <v>395</v>
-      </c>
-      <c r="E54" s="20" t="s">
+      <c r="E54" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F54" s="2" t="s">
@@ -3472,20 +3468,20 @@
       <c r="G54" s="11"/>
     </row>
     <row r="55" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A55" s="17" t="str">
+      <c r="A55" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B55,AssociatedElements!B$2:B2993,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B55" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="C55" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="D55" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="D55" s="18" t="s">
-        <v>398</v>
-      </c>
-      <c r="E55" s="20" t="s">
+      <c r="E55" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F55" s="2" t="s">
@@ -3494,20 +3490,20 @@
       <c r="G55" s="11"/>
     </row>
     <row r="56" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="17" t="str">
+      <c r="A56" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B56,AssociatedElements!B$2:B2994,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B56" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="C56" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="D56" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="D56" s="18" t="s">
-        <v>401</v>
-      </c>
-      <c r="E56" s="20" t="s">
+      <c r="E56" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F56" s="2" t="s">
@@ -3516,20 +3512,20 @@
       <c r="G56" s="11"/>
     </row>
     <row r="57" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A57" s="17" t="str">
+      <c r="A57" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B57,AssociatedElements!B$2:B2995,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B57" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="C57" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="D57" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="D57" s="18" t="s">
-        <v>404</v>
-      </c>
-      <c r="E57" s="20" t="s">
+      <c r="E57" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F57" s="2" t="s">
@@ -3538,20 +3534,20 @@
       <c r="G57" s="11"/>
     </row>
     <row r="58" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="17" t="str">
+      <c r="A58" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B58,AssociatedElements!B$2:B2996,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B58" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="C58" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="D58" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="D58" s="18" t="s">
-        <v>407</v>
-      </c>
-      <c r="E58" s="20" t="s">
+      <c r="E58" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F58" s="2" t="s">
@@ -3560,20 +3556,20 @@
       <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A59" s="17" t="str">
+      <c r="A59" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B59,AssociatedElements!B$2:B2997,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B59" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C59" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="D59" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="D59" s="18" t="s">
-        <v>410</v>
-      </c>
-      <c r="E59" s="20" t="s">
+      <c r="E59" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F59" s="2" t="s">
@@ -3582,20 +3578,20 @@
       <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="17" t="str">
+      <c r="A60" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B60,AssociatedElements!B$2:B2998,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B60" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="C60" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="D60" s="17" t="s">
         <v>412</v>
       </c>
-      <c r="D60" s="18" t="s">
-        <v>413</v>
-      </c>
-      <c r="E60" s="20" t="s">
+      <c r="E60" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F60" s="2" t="s">
@@ -3604,20 +3600,20 @@
       <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="17" t="str">
+      <c r="A61" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B61,AssociatedElements!B$2:B2999,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B61" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="C61" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="D61" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="D61" s="18" t="s">
-        <v>416</v>
-      </c>
-      <c r="E61" s="20" t="s">
+      <c r="E61" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F61" s="2" t="s">
@@ -3626,20 +3622,20 @@
       <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="17" t="str">
+      <c r="A62" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B62,AssociatedElements!B$2:B3000,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B62" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="C62" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="D62" s="17" t="s">
         <v>418</v>
       </c>
-      <c r="D62" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="E62" s="20" t="s">
+      <c r="E62" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F62" s="2" t="s">
@@ -3648,20 +3644,20 @@
       <c r="G62" s="11"/>
     </row>
     <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="17" t="str">
+      <c r="A63" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B63,AssociatedElements!B$2:B3001,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B63" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="C63" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="D63" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="D63" s="18" t="s">
-        <v>422</v>
-      </c>
-      <c r="E63" s="20" t="s">
+      <c r="E63" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F63" s="2" t="s">
@@ -3670,20 +3666,20 @@
       <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="17" t="str">
+      <c r="A64" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B64,AssociatedElements!B$2:B3002,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B64" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="C64" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="D64" s="17" t="s">
         <v>424</v>
       </c>
-      <c r="D64" s="18" t="s">
-        <v>425</v>
-      </c>
-      <c r="E64" s="20" t="s">
+      <c r="E64" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F64" s="2" t="s">
@@ -3692,20 +3688,20 @@
       <c r="G64" s="11"/>
     </row>
     <row r="65" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="17" t="str">
+      <c r="A65" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B65,AssociatedElements!B$2:B3003,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B65" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="C65" s="17" t="s">
         <v>426</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="D65" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="D65" s="18" t="s">
-        <v>428</v>
-      </c>
-      <c r="E65" s="20" t="s">
+      <c r="E65" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F65" s="2" t="s">
@@ -3714,20 +3710,20 @@
       <c r="G65" s="11"/>
     </row>
     <row r="66" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="17" t="str">
+      <c r="A66" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B66,AssociatedElements!B$2:B3004,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B66" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="C66" s="17" t="s">
         <v>429</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="D66" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="D66" s="18" t="s">
-        <v>431</v>
-      </c>
-      <c r="E66" s="20" t="s">
+      <c r="E66" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F66" s="2" t="s">
@@ -3735,21 +3731,21 @@
       </c>
       <c r="G66" s="11"/>
     </row>
-    <row r="67" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A67" s="17" t="str">
+    <row r="67" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B67,AssociatedElements!B$2:B3005,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B67" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="C67" s="17" t="s">
         <v>432</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="D67" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="D67" s="18" t="s">
-        <v>434</v>
-      </c>
-      <c r="E67" s="20" t="s">
+      <c r="E67" s="19" t="s">
         <v>180</v>
       </c>
       <c r="F67" s="2" t="s">
@@ -3757,21 +3753,21 @@
       </c>
       <c r="G67" s="11"/>
     </row>
-    <row r="68" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A68" s="17" t="str">
+    <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B68,AssociatedElements!B$2:B3006,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B68" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="C68" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="D68" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="D68" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="E68" s="20" t="s">
+      <c r="E68" s="19" t="s">
         <v>4</v>
       </c>
       <c r="F68" s="2" t="s">
@@ -3779,21 +3775,21 @@
       </c>
       <c r="G68" s="11"/>
     </row>
-    <row r="69" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A69" s="17" t="str">
+    <row r="69" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B69,AssociatedElements!B$2:B3007,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B69" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="C69" s="17" t="s">
         <v>438</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="D69" s="17" t="s">
         <v>439</v>
       </c>
-      <c r="D69" s="18" t="s">
-        <v>440</v>
-      </c>
-      <c r="E69" s="20" t="s">
+      <c r="E69" s="19" t="s">
         <v>4</v>
       </c>
       <c r="F69" s="2" t="s">
@@ -3802,20 +3798,20 @@
       <c r="G69" s="11"/>
     </row>
     <row r="70" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="17" t="str">
+      <c r="A70" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B70,AssociatedElements!B$2:B3008,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B70" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="C70" s="18" t="s">
         <v>441</v>
       </c>
-      <c r="C70" s="19" t="s">
+      <c r="D70" s="18" t="s">
         <v>442</v>
       </c>
-      <c r="D70" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="E70" s="20" t="s">
+      <c r="E70" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F70" s="2" t="s">
@@ -3882,212 +3878,212 @@
         <v/>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D2" t="s">
         <v>444</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>IF(ISNA(VLOOKUP(B3,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D3" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B3,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f>IF(ISNA(VLOOKUP(B4,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f>IF(ISNA(VLOOKUP(B5,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f>IF(ISNA(VLOOKUP(B6,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f>IF(ISNA(VLOOKUP(B7,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f>IF(ISNA(VLOOKUP(B8,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D8" t="s">
         <v>444</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f>IF(ISNA(VLOOKUP(B9,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D9" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f>IF(ISNA(VLOOKUP(B10,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D10" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f>IF(ISNA(VLOOKUP(B11,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f>IF(ISNA(VLOOKUP(B12,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D12" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B4,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f>IF(ISNA(VLOOKUP(B13,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D13" t="s">
         <v>444</v>
       </c>
-      <c r="D4" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B5,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B5" t="s">
-        <v>243</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D5" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B6,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B7,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f>IF(ISNA(VLOOKUP(B14,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B14" t="s">
+        <v>251</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D14" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f>IF(ISNA(VLOOKUP(B15,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B15" t="s">
+        <v>251</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D15" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B8,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D8" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B9,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B9" t="s">
-        <v>246</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D9" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B10,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B10" t="s">
-        <v>246</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D10" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B11,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B11" t="s">
-        <v>249</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D11" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B12,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B12" t="s">
-        <v>252</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D12" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B13,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B13" t="s">
-        <v>252</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D13" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B14,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B14" t="s">
-        <v>252</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D14" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B15,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B15" t="s">
-        <v>252</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D15" t="s">
-        <v>450</v>
-      </c>
-    </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="str">
+      <c r="A16" t="str">
         <f>IF(ISNA(VLOOKUP(B16,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -4095,1525 +4091,1525 @@
         <v>42</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D16" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <f>IF(ISNA(VLOOKUP(B17,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B17" t="s">
+        <v>256</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D17" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
+        <f>IF(ISNA(VLOOKUP(B18,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B18" t="s">
+        <v>259</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D18" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
+        <f>IF(ISNA(VLOOKUP(B19,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B19" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D19" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
+        <f>IF(ISNA(VLOOKUP(B20,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D20" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
+        <f>IF(ISNA(VLOOKUP(B21,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B21" t="s">
+        <v>259</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D21" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
+        <f>IF(ISNA(VLOOKUP(B22,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B22" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D22" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <f>IF(ISNA(VLOOKUP(B23,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B23" t="s">
+        <v>265</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D23" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <f>IF(ISNA(VLOOKUP(B24,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B24" t="s">
+        <v>268</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D24" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
+        <f>IF(ISNA(VLOOKUP(B25,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B25" t="s">
+        <v>268</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D25" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="str">
+        <f>IF(ISNA(VLOOKUP(B26,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B26" t="s">
+        <v>271</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D26" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="str">
+        <f>IF(ISNA(VLOOKUP(B27,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B27" t="s">
+        <v>271</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D27" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="str">
+        <f>IF(ISNA(VLOOKUP(B28,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B28" t="s">
+        <v>274</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D28" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="str">
+        <f>IF(ISNA(VLOOKUP(B29,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B29" t="s">
+        <v>350</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D29" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="str">
+        <f>IF(ISNA(VLOOKUP(B30,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B30" t="s">
+        <v>350</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D30" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="str">
+        <f>IF(ISNA(VLOOKUP(B31,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B31" t="s">
+        <v>347</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D31" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="str">
+        <f>IF(ISNA(VLOOKUP(B32,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B32" t="s">
+        <v>277</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D32" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="str">
+        <f>IF(ISNA(VLOOKUP(B33,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B33" t="s">
+        <v>280</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D33" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="str">
+        <f>IF(ISNA(VLOOKUP(B34,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B34" t="s">
+        <v>283</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D34" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="str">
+        <f>IF(ISNA(VLOOKUP(B35,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B35" t="s">
+        <v>287</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D35" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="str">
+        <f>IF(ISNA(VLOOKUP(B36,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B36" t="s">
+        <v>290</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D36" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="str">
+        <f>IF(ISNA(VLOOKUP(B37,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B37" t="s">
+        <v>293</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D37" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="str">
+        <f>IF(ISNA(VLOOKUP(B38,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B38" t="s">
+        <v>296</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D38" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="str">
+        <f>IF(ISNA(VLOOKUP(B39,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B39" t="s">
+        <v>296</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D39" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="str">
+        <f>IF(ISNA(VLOOKUP(B40,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B40" t="s">
+        <v>299</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D40" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="str">
+        <f>IF(ISNA(VLOOKUP(B41,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B41" t="s">
+        <v>299</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D41" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="str">
+        <f>IF(ISNA(VLOOKUP(B42,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B42" t="s">
+        <v>353</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D42" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="str">
+        <f>IF(ISNA(VLOOKUP(B43,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B43" t="s">
+        <v>302</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D43" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="str">
+        <f>IF(ISNA(VLOOKUP(B44,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B44" t="s">
+        <v>305</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D44" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="str">
+        <f>IF(ISNA(VLOOKUP(B45,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B45" t="s">
+        <v>308</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D45" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="str">
+        <f>IF(ISNA(VLOOKUP(B46,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B46" t="s">
+        <v>311</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D46" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="str">
+        <f>IF(ISNA(VLOOKUP(B47,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B47" t="s">
+        <v>314</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D47" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="str">
+        <f>IF(ISNA(VLOOKUP(B48,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B48" t="s">
+        <v>314</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D48" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="str">
+        <f>IF(ISNA(VLOOKUP(B49,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B49" t="s">
+        <v>317</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D49" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="str">
+        <f>IF(ISNA(VLOOKUP(B50,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B50" t="s">
+        <v>317</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D50" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="str">
+        <f>IF(ISNA(VLOOKUP(B51,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B51" t="s">
+        <v>320</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D51" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="str">
+        <f>IF(ISNA(VLOOKUP(B52,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B52" t="s">
+        <v>320</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D52" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="str">
+        <f>IF(ISNA(VLOOKUP(B53,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B53" t="s">
+        <v>323</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D53" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="str">
+        <f>IF(ISNA(VLOOKUP(B54,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B54" t="s">
+        <v>323</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D54" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="str">
+        <f>IF(ISNA(VLOOKUP(B55,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B55" t="s">
+        <v>356</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D55" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="str">
+        <f>IF(ISNA(VLOOKUP(B56,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B56" t="s">
+        <v>326</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D56" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="str">
+        <f>IF(ISNA(VLOOKUP(B57,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B57" t="s">
+        <v>326</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D57" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="str">
+        <f>IF(ISNA(VLOOKUP(B58,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B58" t="s">
+        <v>326</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D58" t="s">
         <v>444</v>
       </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="str">
+        <f>IF(ISNA(VLOOKUP(B59,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B59" t="s">
+        <v>326</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D59" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="str">
+        <f>IF(ISNA(VLOOKUP(B60,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B60" t="s">
+        <v>329</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D60" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="str">
+        <f>IF(ISNA(VLOOKUP(B61,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B61" t="s">
+        <v>329</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D61" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="str">
+        <f>IF(ISNA(VLOOKUP(B62,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B62" t="s">
+        <v>329</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D62" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="str">
+        <f>IF(ISNA(VLOOKUP(B63,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B63" t="s">
+        <v>329</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D63" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="str">
+        <f>IF(ISNA(VLOOKUP(B64,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B64" t="s">
+        <v>332</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D64" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="str">
+        <f>IF(ISNA(VLOOKUP(B65,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B65" t="s">
+        <v>332</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D65" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="str">
+        <f>IF(ISNA(VLOOKUP(B66,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B66" t="s">
+        <v>359</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="str">
+        <f>IF(ISNA(VLOOKUP(B67,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B67" t="s">
+        <v>335</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D67" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="str">
+        <f>IF(ISNA(VLOOKUP(B68,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B68" t="s">
+        <v>338</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D68" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="str">
+        <f>IF(ISNA(VLOOKUP(B69,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B69" t="s">
+        <v>341</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D69" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="str">
+        <f>IF(ISNA(VLOOKUP(B70,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B70" t="s">
+        <v>341</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D70" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="str">
+        <f>IF(ISNA(VLOOKUP(B71,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B71" t="s">
+        <v>341</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D71" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="str">
+        <f>IF(ISNA(VLOOKUP(B72,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B72" t="s">
+        <v>341</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D72" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="str">
+        <f>IF(ISNA(VLOOKUP(B73,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B73" t="s">
+        <v>341</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D73" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="str">
+        <f>IF(ISNA(VLOOKUP(B74,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B74" t="s">
+        <v>344</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D74" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="str">
+        <f>IF(ISNA(VLOOKUP(B75,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B75" t="s">
+        <v>344</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D75" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="str">
+        <f>IF(ISNA(VLOOKUP(B76,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B76" t="s">
+        <v>344</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D76" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="str">
+        <f>IF(ISNA(VLOOKUP(B77,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B77" t="s">
+        <v>344</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D77" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="str">
+        <f>IF(ISNA(VLOOKUP(B78,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B78" t="s">
+        <v>344</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D78" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="str">
+        <f>IF(ISNA(VLOOKUP(B79,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B79" t="s">
+        <v>365</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D79" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B17,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B17" t="s">
-        <v>257</v>
-      </c>
-      <c r="C17" s="3" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="str">
+        <f>IF(ISNA(VLOOKUP(B80,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B80" t="s">
+        <v>368</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D80" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="str">
+        <f>IF(ISNA(VLOOKUP(B81,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B81" t="s">
+        <v>371</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D81" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="str">
+        <f>IF(ISNA(VLOOKUP(B82,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B82" t="s">
+        <v>362</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D82" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="str">
+        <f>IF(ISNA(VLOOKUP(B83,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B83" t="s">
+        <v>374</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D83" t="s">
         <v>444</v>
       </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="str">
+        <f>IF(ISNA(VLOOKUP(B84,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B84" t="s">
+        <v>377</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D84" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="str">
+        <f>IF(ISNA(VLOOKUP(B85,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B85" t="s">
+        <v>380</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D85" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="str">
+        <f>IF(ISNA(VLOOKUP(B86,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B86" t="s">
+        <v>380</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D86" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="str">
+        <f>IF(ISNA(VLOOKUP(B87,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B87" t="s">
+        <v>380</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D87" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="str">
+        <f>IF(ISNA(VLOOKUP(B88,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B88" t="s">
+        <v>380</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D88" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="str">
+        <f>IF(ISNA(VLOOKUP(B89,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B89" t="s">
+        <v>380</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D89" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="str">
+        <f>IF(ISNA(VLOOKUP(B90,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B90" t="s">
+        <v>383</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D90" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="str">
+        <f>IF(ISNA(VLOOKUP(B91,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B91" t="s">
+        <v>383</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D91" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B18,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B18" t="s">
-        <v>260</v>
-      </c>
-      <c r="C18" s="3" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="str">
+        <f>IF(ISNA(VLOOKUP(B92,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B92" t="s">
+        <v>383</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D92" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="str">
+        <f>IF(ISNA(VLOOKUP(B93,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B93" t="s">
+        <v>383</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D93" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="str">
+        <f>IF(ISNA(VLOOKUP(B94,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B94" t="s">
+        <v>383</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D94" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="str">
+        <f>IF(ISNA(VLOOKUP(B95,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B95" t="s">
+        <v>386</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D95" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="str">
+        <f>IF(ISNA(VLOOKUP(B96,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B96" t="s">
+        <v>389</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D96" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="str">
+        <f>IF(ISNA(VLOOKUP(B97,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B97" t="s">
+        <v>389</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D97" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="str">
+        <f>IF(ISNA(VLOOKUP(B98,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B98" t="s">
+        <v>389</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D98" t="s">
         <v>444</v>
       </c>
-      <c r="D18" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B19,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B19" t="s">
-        <v>260</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D19" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B20,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B20" t="s">
-        <v>260</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D20" t="s">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="str">
+        <f>IF(ISNA(VLOOKUP(B99,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B99" t="s">
+        <v>389</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D99" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="str">
+        <f>IF(ISNA(VLOOKUP(B100,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B100" t="s">
+        <v>389</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D100" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="str">
+        <f>IF(ISNA(VLOOKUP(B101,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B101" t="s">
+        <v>392</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D101" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="str">
+        <f>IF(ISNA(VLOOKUP(B102,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B102" t="s">
+        <v>395</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D102" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="str">
+        <f>IF(ISNA(VLOOKUP(B103,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B103" t="s">
+        <v>398</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D103" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="str">
+        <f>IF(ISNA(VLOOKUP(B104,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B104" t="s">
+        <v>401</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D104" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="str">
+        <f>IF(ISNA(VLOOKUP(B105,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B105" t="s">
+        <v>404</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D105" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="str">
+        <f>IF(ISNA(VLOOKUP(B106,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B106" t="s">
+        <v>407</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D106" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="str">
+        <f>IF(ISNA(VLOOKUP(B107,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B107" t="s">
+        <v>410</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D107" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="str">
+        <f>IF(ISNA(VLOOKUP(B108,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B108" t="s">
+        <v>413</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D108" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="str">
+        <f>IF(ISNA(VLOOKUP(B109,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B109" t="s">
+        <v>416</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D109" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B21,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B21" t="s">
-        <v>260</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D21" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B22,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B22" t="s">
-        <v>263</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D22" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B23,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B23" t="s">
-        <v>266</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D23" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B24,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B24" t="s">
-        <v>269</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D24" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B25,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B25" t="s">
-        <v>269</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D25" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="str">
+        <f>IF(ISNA(VLOOKUP(B110,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B110" t="s">
+        <v>419</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D110" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B26,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B26" t="s">
-        <v>272</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D26" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B27,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B27" t="s">
-        <v>272</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D27" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="str">
+        <f>IF(ISNA(VLOOKUP(B111,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B111" t="s">
+        <v>422</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D111" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B28,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B28" t="s">
-        <v>275</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D28" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B29,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B29" t="s">
-        <v>351</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D29" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B30,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B30" t="s">
-        <v>351</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D30" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B31,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B31" t="s">
-        <v>348</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D31" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B32,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B32" t="s">
-        <v>278</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D32" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B33,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B33" t="s">
-        <v>281</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D33" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B34,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B34" t="s">
-        <v>284</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D34" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B35,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B35" t="s">
-        <v>288</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D35" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B36,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B36" t="s">
-        <v>291</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D36" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B37,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B37" t="s">
-        <v>294</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D37" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B38,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B38" t="s">
-        <v>297</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D38" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B39,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B39" t="s">
-        <v>297</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D39" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B40,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B40" t="s">
-        <v>300</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D40" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B41,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B41" t="s">
-        <v>300</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D41" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B42,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B42" t="s">
-        <v>354</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D42" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B43,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B43" t="s">
-        <v>303</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D43" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B44,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B44" t="s">
-        <v>306</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D44" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B45,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B45" t="s">
-        <v>309</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D45" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B46,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B46" t="s">
-        <v>312</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D46" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B47,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B47" t="s">
-        <v>315</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D47" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B48,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B48" t="s">
-        <v>315</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D48" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B49,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B49" t="s">
-        <v>318</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D49" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B50,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B50" t="s">
-        <v>318</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D50" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B51,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B51" t="s">
-        <v>321</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D51" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B52,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B52" t="s">
-        <v>321</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D52" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B53,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B53" t="s">
-        <v>324</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D53" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B54,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B54" t="s">
-        <v>324</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D54" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B55,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B55" t="s">
-        <v>357</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D55" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B56,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B56" t="s">
-        <v>327</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D56" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B57,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B57" t="s">
-        <v>327</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D57" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="str">
+        <f>IF(ISNA(VLOOKUP(B112,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B112" t="s">
+        <v>425</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D112" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B58,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B58" t="s">
-        <v>327</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D58" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B59,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B59" t="s">
-        <v>327</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D59" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B60,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B60" t="s">
-        <v>330</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D60" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B61,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B61" t="s">
-        <v>330</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D61" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B62,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B62" t="s">
-        <v>330</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D62" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B63,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B63" t="s">
-        <v>330</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D63" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B64,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B64" t="s">
-        <v>333</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D64" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B65,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B65" t="s">
-        <v>333</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D65" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B66,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B66" t="s">
-        <v>360</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D66" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B67,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B67" t="s">
-        <v>336</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D67" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B68,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B68" t="s">
-        <v>339</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D68" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B69,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B69" t="s">
-        <v>342</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D69" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B70,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B70" t="s">
-        <v>342</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D70" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B71,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B71" t="s">
-        <v>342</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D71" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B72,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B72" t="s">
-        <v>342</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D72" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B73,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B73" t="s">
-        <v>342</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D73" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B74,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B74" t="s">
-        <v>345</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D74" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B75,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B75" t="s">
-        <v>345</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D75" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B76,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B76" t="s">
-        <v>345</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D76" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B77,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B77" t="s">
-        <v>345</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D77" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B78,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B78" t="s">
-        <v>345</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D78" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B79,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B79" t="s">
-        <v>366</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D79" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B80,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B80" t="s">
-        <v>369</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D80" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B81,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B81" t="s">
-        <v>372</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D81" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B82,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B82" t="s">
-        <v>363</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D82" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B83,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B83" t="s">
-        <v>375</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D83" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B84,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B84" t="s">
-        <v>378</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D84" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B85,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B85" t="s">
-        <v>381</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D85" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B86,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B86" t="s">
-        <v>381</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D86" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B87,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B87" t="s">
-        <v>381</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D87" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B88,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B88" t="s">
-        <v>381</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D88" t="s">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="str">
+        <f>IF(ISNA(VLOOKUP(B113,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B113" t="s">
+        <v>428</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D113" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B89,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B89" t="s">
-        <v>381</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D89" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B90,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B90" t="s">
-        <v>384</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D90" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B91,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B91" t="s">
-        <v>384</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D91" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B92,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B92" t="s">
-        <v>384</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D92" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B93,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B93" t="s">
-        <v>384</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D93" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="str">
+        <f>IF(ISNA(VLOOKUP(B114,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B114" t="s">
+        <v>431</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D114" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B94,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B94" t="s">
-        <v>384</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D94" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B95,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B95" t="s">
-        <v>387</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D95" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B96,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B96" t="s">
-        <v>390</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D96" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B97,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B97" t="s">
-        <v>390</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D97" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B98,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B98" t="s">
-        <v>390</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D98" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B99,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B99" t="s">
-        <v>390</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D99" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B100,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B100" t="s">
-        <v>390</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D100" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B101,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B101" t="s">
-        <v>393</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D101" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B102,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B102" t="s">
-        <v>396</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D102" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B103,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B103" t="s">
-        <v>399</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D103" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B104,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B104" t="s">
-        <v>402</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D104" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B105,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B105" t="s">
-        <v>405</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D105" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B106,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B106" t="s">
-        <v>408</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D106" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B107,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B107" t="s">
-        <v>411</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D107" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B108,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B108" t="s">
-        <v>414</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D108" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B109,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B109" t="s">
-        <v>417</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D109" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B110,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B110" t="s">
-        <v>420</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D110" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B111,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B111" t="s">
-        <v>423</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D111" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B112,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B112" t="s">
-        <v>426</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D112" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B113,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B113" t="s">
-        <v>429</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D113" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="21" t="str">
-        <f>IF(ISNA(VLOOKUP(B114,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B114" t="s">
-        <v>432</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D114" t="s">
-        <v>462</v>
-      </c>
-    </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="21" t="str">
+      <c r="A115" t="str">
         <f>IF(ISNA(VLOOKUP(B115,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B115" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D115" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="21" t="str">
+      <c r="A116" t="str">
         <f>IF(ISNA(VLOOKUP(B116,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B116" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D116" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="21" t="str">
+      <c r="A117" t="str">
         <f>IF(ISNA(VLOOKUP(B117,Definitions!B$2:B$1880,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B117" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D117" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>

--- a/Codelist Excel Files and Conversion Templates to XML/geophysics_properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/geophysics_properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4779222-DC1C-B04B-B66D-C72D382ED229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985813C3-82C2-0044-90A7-5F4AF1BDD410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13820" yWindow="10020" windowWidth="35840" windowHeight="20900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13820" yWindow="10020" windowWidth="35840" windowHeight="20900" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -1367,64 +1367,64 @@
     <t>The  two-way time required for a sesimic wave to travel from the source to the borehole wall</t>
   </si>
   <si>
-    <t>//diggs:PropertyClass</t>
-  </si>
-  <si>
-    <t>//diggs:ProcessedGeophysicalSurvey/diggs:geophysicalMethod[text()="seismic reflection"]</t>
-  </si>
-  <si>
-    <t>//diggs:ProcessedGeophysicalSurvey/diggs:geophysicalMethod[text()="seismic refraction"]</t>
-  </si>
-  <si>
-    <t>//diggs:ProcessedGeophysicalSurvey/diggs:geophysicalMethod[text()="gravity"]</t>
-  </si>
-  <si>
-    <t>//diggs:ProcessedGeophysicalSurvey/diggs:geophysicalMethod[text()="MASW - active"]</t>
-  </si>
-  <si>
-    <t>//diggs:ProcessedGeophysicalSurvey/diggs:geophysicalMethod[text()="MASW - passive"]</t>
-  </si>
-  <si>
     <t xml:space="preserve"> //diggs_geo:WirelineLog</t>
   </si>
   <si>
-    <t>//diggs:ProcessedGeophysicalSurvey/diggs:geophysicalMethod[text()="induced polarization (IP)"]</t>
-  </si>
-  <si>
-    <t>//diggs:ProcessedGeophysicalSurvey/diggs:geophysicalMethod[text()="frequency domain EM (FDEM)"]</t>
-  </si>
-  <si>
-    <t>//diggs:ProcessedGeophysicalSurvey/diggs:geophysicalMethod[text()="ground penetrating radar (GPR)"]</t>
-  </si>
-  <si>
-    <t>//diggs:ProcessedGeophysicalSurvey/diggs:geophysicalMethod[text()="VLF EM"]</t>
-  </si>
-  <si>
-    <t>//diggs:ProcessedGeophysicalSurvey/diggs:geophysicalMethod[text()="magneotellurics (MT)"]</t>
-  </si>
-  <si>
-    <t>//diggs:ProcessedGeophysicalSurvey/diggs:geophysicalMethod[text()="electrical resistivity (ERI/ERT)"]</t>
-  </si>
-  <si>
-    <t>//diggs:ProcessedGeophysicalSurvey/diggs:geophysicalMethod[text()="self-potential (SP)"]</t>
-  </si>
-  <si>
-    <t>//diggs:ProcessedGeophysicalSurvey/diggs:geophysicalMethod[text()="nuclear magnetic resonance (NMR)"]</t>
-  </si>
-  <si>
-    <t>//diggs:ProcessedGeophysicalSurvey/diggs:geophysicalMethod[text()="magnetometry"]</t>
-  </si>
-  <si>
-    <t>//diggs:ProcessedGeophysicalSurvey/diggs:geophysicalMethod[text()="radiometric"]</t>
-  </si>
-  <si>
-    <t>//diggs:ProcessedGeophysicalSurvey/diggs:geophysicalMethod[text()="time-domain EM (TEM)"]</t>
-  </si>
-  <si>
-    <t>//diggs:ProcessedGeophysicalSurvey/diggs:geophysicalMethod[text()="borehole image log"]</t>
-  </si>
-  <si>
     <t>gp_properties</t>
+  </si>
+  <si>
+    <t>//diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="seismic reflection"]</t>
+  </si>
+  <si>
+    <t>//diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="seismic refraction"]</t>
+  </si>
+  <si>
+    <t>//diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="gravity"]</t>
+  </si>
+  <si>
+    <t>//diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="MASW - active"]</t>
+  </si>
+  <si>
+    <t>//diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="MASW - passive"]</t>
+  </si>
+  <si>
+    <t>//diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="induced polarization (IP)"]</t>
+  </si>
+  <si>
+    <t>//diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="frequency domain EM (FDEM)"]</t>
+  </si>
+  <si>
+    <t>//diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="ground penetrating radar (GPR)"]</t>
+  </si>
+  <si>
+    <t>//diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="VLF EM"]</t>
+  </si>
+  <si>
+    <t>//diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="magneotellurics (MT)"]</t>
+  </si>
+  <si>
+    <t>//diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="electrical resistivity (ERI/ERT)"]</t>
+  </si>
+  <si>
+    <t>//diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="self-potential (SP)"]</t>
+  </si>
+  <si>
+    <t>//diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="nuclear magnetic resonance (NMR)"]</t>
+  </si>
+  <si>
+    <t>//diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="magnetometry"]</t>
+  </si>
+  <si>
+    <t>//diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="radiometric"]</t>
+  </si>
+  <si>
+    <t>//diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="time-domain EM (TEM)"]</t>
+  </si>
+  <si>
+    <t>//diggs:GeophysicalProcessing/diggs:geophysicalMethod[text()="borehole image log"]</t>
+  </si>
+  <si>
+    <t>//diggs:Property/diggs:propertyClass</t>
   </si>
 </sst>
 </file>
@@ -2190,7 +2190,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2235,7 +2235,7 @@
         <v>233</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>234</v>
@@ -3845,9 +3845,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3881,10 +3881,10 @@
         <v>236</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3896,10 +3896,10 @@
         <v>236</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3911,10 +3911,10 @@
         <v>239</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3926,10 +3926,10 @@
         <v>242</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3941,10 +3941,10 @@
         <v>245</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3956,10 +3956,10 @@
         <v>245</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3971,10 +3971,10 @@
         <v>245</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3986,10 +3986,10 @@
         <v>245</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4001,10 +4001,10 @@
         <v>245</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D10" t="s">
         <v>443</v>
-      </c>
-      <c r="D10" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4016,10 +4016,10 @@
         <v>248</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D11" t="s">
         <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -4031,10 +4031,10 @@
         <v>251</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D12" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4046,10 +4046,10 @@
         <v>251</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D13" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4061,10 +4061,10 @@
         <v>251</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D14" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -4076,10 +4076,10 @@
         <v>251</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D15" t="s">
         <v>443</v>
-      </c>
-      <c r="D15" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -4091,7 +4091,7 @@
         <v>42</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D16" t="s">
         <v>450</v>
@@ -4106,10 +4106,10 @@
         <v>256</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D17" t="s">
         <v>443</v>
-      </c>
-      <c r="D17" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -4121,7 +4121,7 @@
         <v>259</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D18" t="s">
         <v>451</v>
@@ -4136,7 +4136,7 @@
         <v>259</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D19" t="s">
         <v>452</v>
@@ -4151,7 +4151,7 @@
         <v>259</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D20" t="s">
         <v>453</v>
@@ -4166,10 +4166,10 @@
         <v>259</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D21" t="s">
         <v>443</v>
-      </c>
-      <c r="D21" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -4181,7 +4181,7 @@
         <v>262</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D22" t="s">
         <v>452</v>
@@ -4196,7 +4196,7 @@
         <v>265</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D23" t="s">
         <v>452</v>
@@ -4211,7 +4211,7 @@
         <v>268</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D24" t="s">
         <v>454</v>
@@ -4226,7 +4226,7 @@
         <v>268</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D25" t="s">
         <v>453</v>
@@ -4241,7 +4241,7 @@
         <v>271</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D26" t="s">
         <v>454</v>
@@ -4256,7 +4256,7 @@
         <v>271</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D27" t="s">
         <v>453</v>
@@ -4271,7 +4271,7 @@
         <v>274</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D28" t="s">
         <v>453</v>
@@ -4286,7 +4286,7 @@
         <v>350</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D29" t="s">
         <v>455</v>
@@ -4301,7 +4301,7 @@
         <v>350</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D30" t="s">
         <v>456</v>
@@ -4316,7 +4316,7 @@
         <v>347</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D31" t="s">
         <v>456</v>
@@ -4331,7 +4331,7 @@
         <v>277</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D32" t="s">
         <v>452</v>
@@ -4346,10 +4346,10 @@
         <v>280</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D33" t="s">
         <v>443</v>
-      </c>
-      <c r="D33" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -4361,10 +4361,10 @@
         <v>283</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D34" t="s">
         <v>443</v>
-      </c>
-      <c r="D34" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -4376,10 +4376,10 @@
         <v>287</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D35" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -4391,10 +4391,10 @@
         <v>290</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D36" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -4406,10 +4406,10 @@
         <v>293</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D37" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -4421,7 +4421,7 @@
         <v>296</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D38" t="s">
         <v>451</v>
@@ -4436,7 +4436,7 @@
         <v>296</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D39" t="s">
         <v>453</v>
@@ -4451,7 +4451,7 @@
         <v>299</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D40" t="s">
         <v>451</v>
@@ -4466,7 +4466,7 @@
         <v>299</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D41" t="s">
         <v>453</v>
@@ -4481,7 +4481,7 @@
         <v>353</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D42" t="s">
         <v>456</v>
@@ -4496,7 +4496,7 @@
         <v>302</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D43" t="s">
         <v>457</v>
@@ -4511,7 +4511,7 @@
         <v>305</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D44" t="s">
         <v>457</v>
@@ -4526,7 +4526,7 @@
         <v>308</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D45" t="s">
         <v>458</v>
@@ -4541,7 +4541,7 @@
         <v>311</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D46" t="s">
         <v>458</v>
@@ -4556,7 +4556,7 @@
         <v>314</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D47" t="s">
         <v>454</v>
@@ -4571,7 +4571,7 @@
         <v>314</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D48" t="s">
         <v>458</v>
@@ -4586,7 +4586,7 @@
         <v>317</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D49" t="s">
         <v>454</v>
@@ -4601,7 +4601,7 @@
         <v>317</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D50" t="s">
         <v>458</v>
@@ -4616,7 +4616,7 @@
         <v>320</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D51" t="s">
         <v>454</v>
@@ -4631,7 +4631,7 @@
         <v>320</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D52" t="s">
         <v>458</v>
@@ -4646,7 +4646,7 @@
         <v>323</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D53" t="s">
         <v>458</v>
@@ -4661,10 +4661,10 @@
         <v>323</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D54" t="s">
         <v>443</v>
-      </c>
-      <c r="D54" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -4676,7 +4676,7 @@
         <v>356</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D55" t="s">
         <v>456</v>
@@ -4691,10 +4691,10 @@
         <v>326</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D56" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -4706,10 +4706,10 @@
         <v>326</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D57" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -4721,10 +4721,10 @@
         <v>326</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D58" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -4736,10 +4736,10 @@
         <v>326</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D59" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -4751,10 +4751,10 @@
         <v>329</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D60" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -4766,10 +4766,10 @@
         <v>329</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D61" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -4781,10 +4781,10 @@
         <v>329</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D62" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -4796,10 +4796,10 @@
         <v>329</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D63" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -4811,10 +4811,10 @@
         <v>332</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D64" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -4826,10 +4826,10 @@
         <v>332</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D65" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -4841,7 +4841,7 @@
         <v>359</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D66" t="s">
         <v>456</v>
@@ -4856,7 +4856,7 @@
         <v>335</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D67" t="s">
         <v>459</v>
@@ -4871,7 +4871,7 @@
         <v>338</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D68" t="s">
         <v>459</v>
@@ -4886,10 +4886,10 @@
         <v>341</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D69" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -4901,10 +4901,10 @@
         <v>341</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D70" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -4916,10 +4916,10 @@
         <v>341</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D71" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -4931,10 +4931,10 @@
         <v>341</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D72" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -4946,10 +4946,10 @@
         <v>341</v>
       </c>
       <c r="C73" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D73" t="s">
         <v>443</v>
-      </c>
-      <c r="D73" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -4961,10 +4961,10 @@
         <v>344</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D74" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -4976,10 +4976,10 @@
         <v>344</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D75" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -4991,10 +4991,10 @@
         <v>344</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D76" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -5006,10 +5006,10 @@
         <v>344</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D77" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -5021,10 +5021,10 @@
         <v>344</v>
       </c>
       <c r="C78" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D78" t="s">
         <v>443</v>
-      </c>
-      <c r="D78" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -5036,7 +5036,7 @@
         <v>365</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D79" t="s">
         <v>451</v>
@@ -5051,7 +5051,7 @@
         <v>368</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D80" t="s">
         <v>451</v>
@@ -5066,7 +5066,7 @@
         <v>371</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D81" t="s">
         <v>459</v>
@@ -5081,7 +5081,7 @@
         <v>362</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D82" t="s">
         <v>456</v>
@@ -5096,10 +5096,10 @@
         <v>374</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D83" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -5111,10 +5111,10 @@
         <v>377</v>
       </c>
       <c r="C84" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D84" t="s">
         <v>443</v>
-      </c>
-      <c r="D84" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -5126,7 +5126,7 @@
         <v>380</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D85" t="s">
         <v>455</v>
@@ -5141,7 +5141,7 @@
         <v>380</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D86" t="s">
         <v>451</v>
@@ -5156,7 +5156,7 @@
         <v>380</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D87" t="s">
         <v>454</v>
@@ -5171,7 +5171,7 @@
         <v>380</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D88" t="s">
         <v>460</v>
@@ -5186,10 +5186,10 @@
         <v>380</v>
       </c>
       <c r="C89" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D89" t="s">
         <v>443</v>
-      </c>
-      <c r="D89" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -5201,7 +5201,7 @@
         <v>383</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D90" t="s">
         <v>455</v>
@@ -5216,7 +5216,7 @@
         <v>383</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D91" t="s">
         <v>450</v>
@@ -5231,7 +5231,7 @@
         <v>383</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D92" t="s">
         <v>454</v>
@@ -5246,7 +5246,7 @@
         <v>383</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D93" t="s">
         <v>460</v>
@@ -5261,7 +5261,7 @@
         <v>383</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D94" t="s">
         <v>453</v>
@@ -5276,10 +5276,10 @@
         <v>386</v>
       </c>
       <c r="C95" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D95" t="s">
         <v>443</v>
-      </c>
-      <c r="D95" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -5291,10 +5291,10 @@
         <v>389</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D96" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -5306,10 +5306,10 @@
         <v>389</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D97" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -5321,10 +5321,10 @@
         <v>389</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D98" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -5336,10 +5336,10 @@
         <v>389</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D99" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -5351,10 +5351,10 @@
         <v>389</v>
       </c>
       <c r="C100" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D100" t="s">
         <v>443</v>
-      </c>
-      <c r="D100" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -5366,10 +5366,10 @@
         <v>392</v>
       </c>
       <c r="C101" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D101" t="s">
         <v>443</v>
-      </c>
-      <c r="D101" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -5381,10 +5381,10 @@
         <v>395</v>
       </c>
       <c r="C102" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D102" t="s">
         <v>443</v>
-      </c>
-      <c r="D102" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -5396,7 +5396,7 @@
         <v>398</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D103" t="s">
         <v>457</v>
@@ -5411,7 +5411,7 @@
         <v>401</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D104" t="s">
         <v>457</v>
@@ -5426,7 +5426,7 @@
         <v>404</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D105" t="s">
         <v>457</v>
@@ -5441,7 +5441,7 @@
         <v>407</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D106" t="s">
         <v>457</v>
@@ -5456,10 +5456,10 @@
         <v>410</v>
       </c>
       <c r="C107" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D107" t="s">
         <v>443</v>
-      </c>
-      <c r="D107" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -5471,10 +5471,10 @@
         <v>413</v>
       </c>
       <c r="C108" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D108" t="s">
         <v>443</v>
-      </c>
-      <c r="D108" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -5486,7 +5486,7 @@
         <v>416</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D109" t="s">
         <v>454</v>
@@ -5501,7 +5501,7 @@
         <v>419</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D110" t="s">
         <v>454</v>
@@ -5516,7 +5516,7 @@
         <v>422</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D111" t="s">
         <v>454</v>
@@ -5531,10 +5531,10 @@
         <v>425</v>
       </c>
       <c r="C112" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D112" t="s">
         <v>443</v>
-      </c>
-      <c r="D112" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -5546,7 +5546,7 @@
         <v>428</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D113" t="s">
         <v>461</v>
@@ -5561,7 +5561,7 @@
         <v>431</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D114" t="s">
         <v>461</v>
@@ -5576,7 +5576,7 @@
         <v>434</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D115" t="s">
         <v>461</v>
@@ -5591,7 +5591,7 @@
         <v>437</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D116" t="s">
         <v>461</v>
@@ -5606,7 +5606,7 @@
         <v>440</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D117" t="s">
         <v>461</v>
